--- a/runs/run055/NotionalETEOutput055.xlsx
+++ b/runs/run055/NotionalETEOutput055.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_285.MISSILE_BRAVER1_285</t>
+    <t>MISSILE_HIGHWIND1_465.MISSILE_HIGHWIND1_465</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1470.86219217446</v>
+        <v>-1437.69493527955</v>
       </c>
       <c r="J2">
-        <v>2094.805107043629</v>
+        <v>1925.047081433057</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1527.678511589821</v>
+        <v>-1408.728041687938</v>
       </c>
       <c r="J3">
-        <v>1937.331633787404</v>
+        <v>1981.807510608966</v>
       </c>
       <c r="K3">
-        <v>293.4845460155588</v>
+        <v>310.501035923116</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1472.990643416915</v>
+        <v>-1467.698686307765</v>
       </c>
       <c r="J4">
-        <v>1945.617770021915</v>
+        <v>1875.077862037757</v>
       </c>
       <c r="K4">
-        <v>614.4266523318875</v>
+        <v>572.1439444667524</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1351.207115841681</v>
+        <v>-1448.925434842228</v>
       </c>
       <c r="J5">
-        <v>1937.293876168603</v>
+        <v>1878.883459517102</v>
       </c>
       <c r="K5">
-        <v>845.0282846024046</v>
+        <v>876.4541558963792</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1316.097672015818</v>
+        <v>-1391.390223505392</v>
       </c>
       <c r="J6">
-        <v>1817.615314164004</v>
+        <v>1885.221621243357</v>
       </c>
       <c r="K6">
-        <v>1073.753088064974</v>
+        <v>1101.235540150696</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1313.41903504738</v>
+        <v>-1403.137436311803</v>
       </c>
       <c r="J7">
-        <v>1763.835928586758</v>
+        <v>1839.996510286874</v>
       </c>
       <c r="K7">
-        <v>1425.189850830842</v>
+        <v>1372.837218754266</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1299.909805636729</v>
+        <v>-1328.745579551541</v>
       </c>
       <c r="J8">
-        <v>1725.375672854049</v>
+        <v>1715.993055006602</v>
       </c>
       <c r="K8">
-        <v>1622.533008165094</v>
+        <v>1670.189977258949</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.88901166449718</v>
+        <v>-96.20545317588704</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1292.601927388546</v>
+        <v>-1241.702898406895</v>
       </c>
       <c r="J9">
-        <v>1670.453081076601</v>
+        <v>1732.987342540932</v>
       </c>
       <c r="K9">
-        <v>1835.697287394125</v>
+        <v>1838.721530924722</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>225.9270427176506</v>
+        <v>208.3223851931456</v>
       </c>
       <c r="G10">
-        <v>-85.19174182116306</v>
+        <v>-80.02871382745107</v>
       </c>
       <c r="H10">
-        <v>844.1176207989947</v>
+        <v>896.4840986754338</v>
       </c>
       <c r="I10">
-        <v>-1238.564474411748</v>
+        <v>-1288.70273631798</v>
       </c>
       <c r="J10">
-        <v>1539.251334100504</v>
+        <v>1626.574176671014</v>
       </c>
       <c r="K10">
-        <v>1965.102719055066</v>
+        <v>2070.566998067741</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.1125980265116</v>
+        <v>164.3629738999706</v>
       </c>
       <c r="G11">
-        <v>-69.0453463136722</v>
+        <v>-65.08746139896725</v>
       </c>
       <c r="H11">
-        <v>1076.688265358857</v>
+        <v>1056.715576820282</v>
       </c>
       <c r="I11">
-        <v>-1200.811604122928</v>
+        <v>-1254.341709306043</v>
       </c>
       <c r="J11">
-        <v>1536.211433837817</v>
+        <v>1557.106948026611</v>
       </c>
       <c r="K11">
-        <v>2278.678609433811</v>
+        <v>2230.845275013155</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.8273685990752</v>
+        <v>142.5918849501697</v>
       </c>
       <c r="G12">
-        <v>-52.63579600982953</v>
+        <v>-52.83010582458438</v>
       </c>
       <c r="H12">
-        <v>1217.670121222433</v>
+        <v>1192.619301225388</v>
       </c>
       <c r="I12">
-        <v>-1122.450321084253</v>
+        <v>-1176.392117220026</v>
       </c>
       <c r="J12">
-        <v>1530.625732738953</v>
+        <v>1456.636549857282</v>
       </c>
       <c r="K12">
-        <v>2466.13561680339</v>
+        <v>2310.079723042324</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.0144520518072</v>
+        <v>121.5385183831358</v>
       </c>
       <c r="G13">
-        <v>-33.52058305853045</v>
+        <v>-34.68939559662343</v>
       </c>
       <c r="H13">
-        <v>1216.420128826229</v>
+        <v>1211.595353257202</v>
       </c>
       <c r="I13">
-        <v>-1140.267693474965</v>
+        <v>-1169.576669920596</v>
       </c>
       <c r="J13">
-        <v>1526.203796811818</v>
+        <v>1447.698221568928</v>
       </c>
       <c r="K13">
-        <v>2614.411672977888</v>
+        <v>2612.539864322508</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.7198020327113</v>
+        <v>111.2822476509764</v>
       </c>
       <c r="G14">
-        <v>-17.19553756641663</v>
+        <v>-16.93087029471998</v>
       </c>
       <c r="H14">
-        <v>1347.235337197164</v>
+        <v>1278.49384723068</v>
       </c>
       <c r="I14">
-        <v>-1071.662990975785</v>
+        <v>-1104.265863935254</v>
       </c>
       <c r="J14">
-        <v>1365.670725766337</v>
+        <v>1375.075103717042</v>
       </c>
       <c r="K14">
-        <v>2534.901077990249</v>
+        <v>2620.440290922865</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.65520232766166</v>
+        <v>104.1339475979641</v>
       </c>
       <c r="G15">
-        <v>-0.879449339251316</v>
+        <v>-0.9386008862150412</v>
       </c>
       <c r="H15">
-        <v>1431.215258541709</v>
+        <v>1341.997335300088</v>
       </c>
       <c r="I15">
-        <v>-1092.709828213504</v>
+        <v>-1087.798821076579</v>
       </c>
       <c r="J15">
-        <v>1337.235680731906</v>
+        <v>1379.020309579354</v>
       </c>
       <c r="K15">
-        <v>2779.933551698131</v>
+        <v>2718.735562636322</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.30544530024804</v>
+        <v>93.48859097367639</v>
       </c>
       <c r="G16">
-        <v>16.35452637927745</v>
+        <v>16.0947372846874</v>
       </c>
       <c r="H16">
-        <v>1476.649336414172</v>
+        <v>1492.371427665931</v>
       </c>
       <c r="I16">
-        <v>-965.5545925500376</v>
+        <v>-1050.950070356121</v>
       </c>
       <c r="J16">
-        <v>1331.879161337133</v>
+        <v>1284.240871043475</v>
       </c>
       <c r="K16">
-        <v>2734.786007325815</v>
+        <v>3011.57737112946</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.04776799253328</v>
+        <v>82.65238889739746</v>
       </c>
       <c r="G17">
-        <v>31.75157267382551</v>
+        <v>31.63126696956171</v>
       </c>
       <c r="H17">
-        <v>1465.121015095252</v>
+        <v>1480.246535590436</v>
       </c>
       <c r="I17">
-        <v>-960.4920970614543</v>
+        <v>-997.2165641203914</v>
       </c>
       <c r="J17">
-        <v>1239.222550302419</v>
+        <v>1294.075914241302</v>
       </c>
       <c r="K17">
-        <v>2846.401277244356</v>
+        <v>3060.255382889589</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.93835528280624</v>
+        <v>83.30543913971918</v>
       </c>
       <c r="G18">
-        <v>49.26497214600369</v>
+        <v>49.47162349473616</v>
       </c>
       <c r="H18">
-        <v>1543.86132184697</v>
+        <v>1435.029969244239</v>
       </c>
       <c r="I18">
-        <v>-923.6061643326126</v>
+        <v>-909.7793708459383</v>
       </c>
       <c r="J18">
-        <v>1170.406400046179</v>
+        <v>1245.108451064343</v>
       </c>
       <c r="K18">
-        <v>2994.142966995305</v>
+        <v>2919.971706808444</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.13151143465511</v>
+        <v>78.0497227111228</v>
       </c>
       <c r="G19">
-        <v>66.14237587720207</v>
+        <v>62.91323699236854</v>
       </c>
       <c r="H19">
-        <v>1511.507090162276</v>
+        <v>1475.769686864375</v>
       </c>
       <c r="I19">
-        <v>-854.433966323281</v>
+        <v>-859.7193661321176</v>
       </c>
       <c r="J19">
-        <v>1193.89177190093</v>
+        <v>1187.118036933473</v>
       </c>
       <c r="K19">
-        <v>2950.805876763968</v>
+        <v>3257.702026618638</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.33431198297589</v>
+        <v>72.70839762911248</v>
       </c>
       <c r="G20">
-        <v>85.47325989261404</v>
+        <v>79.09634073680934</v>
       </c>
       <c r="H20">
-        <v>1521.819509952836</v>
+        <v>1523.428571936982</v>
       </c>
       <c r="I20">
-        <v>-797.7162564884409</v>
+        <v>-862.4371945718613</v>
       </c>
       <c r="J20">
-        <v>1174.326325662144</v>
+        <v>1091.070130209874</v>
       </c>
       <c r="K20">
-        <v>3174.696645226168</v>
+        <v>3008.951599280863</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.84533744086704</v>
+        <v>72.36728462138582</v>
       </c>
       <c r="G21">
-        <v>96.61453540156577</v>
+        <v>102.3112487563748</v>
       </c>
       <c r="H21">
-        <v>1665.086182756062</v>
+        <v>1564.73724465457</v>
       </c>
       <c r="I21">
-        <v>-803.5883651130509</v>
+        <v>-812.4524026168161</v>
       </c>
       <c r="J21">
-        <v>1031.852105899039</v>
+        <v>1037.282561585146</v>
       </c>
       <c r="K21">
-        <v>3054.190591094681</v>
+        <v>3329.352476496671</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>64.99332524904615</v>
+        <v>65.35495342496758</v>
       </c>
       <c r="G22">
-        <v>110.9515456155846</v>
+        <v>110.0624275698827</v>
       </c>
       <c r="H22">
-        <v>1638.889056867947</v>
+        <v>1583.855850109948</v>
       </c>
       <c r="I22">
-        <v>-779.1320763102301</v>
+        <v>-779.4819931106636</v>
       </c>
       <c r="J22">
-        <v>977.9503278240113</v>
+        <v>1016.587867462172</v>
       </c>
       <c r="K22">
-        <v>3227.380743298777</v>
+        <v>3299.679617997372</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.56198202061669</v>
+        <v>62.89614846508272</v>
       </c>
       <c r="G23">
-        <v>130.1179340428093</v>
+        <v>125.3788618370755</v>
       </c>
       <c r="H23">
-        <v>1710.136085873972</v>
+        <v>1619.460792700577</v>
       </c>
       <c r="I23">
-        <v>-718.536160873424</v>
+        <v>-692.7695379888544</v>
       </c>
       <c r="J23">
-        <v>931.2424489929109</v>
+        <v>930.4943053991506</v>
       </c>
       <c r="K23">
-        <v>3209.683830606199</v>
+        <v>3098.407496456202</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.7005058444896</v>
+        <v>62.87555328174557</v>
       </c>
       <c r="G24">
-        <v>146.8202922740041</v>
+        <v>146.5196691119612</v>
       </c>
       <c r="H24">
-        <v>1722.26679514193</v>
+        <v>1700.839783368512</v>
       </c>
       <c r="I24">
-        <v>-635.989227544554</v>
+        <v>-653.3705515905112</v>
       </c>
       <c r="J24">
-        <v>894.9487771644218</v>
+        <v>918.635147528124</v>
       </c>
       <c r="K24">
-        <v>3185.359661087878</v>
+        <v>3081.362669819589</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.73669652661925</v>
+        <v>58.89193077888056</v>
       </c>
       <c r="G25">
-        <v>169.8671401583092</v>
+        <v>157.4370880234086</v>
       </c>
       <c r="H25">
-        <v>1702.204453563807</v>
+        <v>1596.056578492426</v>
       </c>
       <c r="I25">
-        <v>-610.2608928943149</v>
+        <v>-607.8775322924151</v>
       </c>
       <c r="J25">
-        <v>895.7054116419454</v>
+        <v>909.3776582695372</v>
       </c>
       <c r="K25">
-        <v>3039.06896617358</v>
+        <v>3167.702654199278</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.51485383255063</v>
+        <v>60.60722731290542</v>
       </c>
       <c r="G26">
-        <v>182.141690868966</v>
+        <v>186.734651258698</v>
       </c>
       <c r="H26">
-        <v>1658.643469871556</v>
+        <v>1628.156344870843</v>
       </c>
       <c r="I26">
-        <v>-565.3636241653101</v>
+        <v>-524.2519749616296</v>
       </c>
       <c r="J26">
-        <v>837.7139946243549</v>
+        <v>826.9774847686804</v>
       </c>
       <c r="K26">
-        <v>3016.566463161657</v>
+        <v>3201.896425453258</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.00266338415958</v>
+        <v>58.32757753175334</v>
       </c>
       <c r="G27">
-        <v>205.3397752834245</v>
+        <v>197.146443215336</v>
       </c>
       <c r="H27">
-        <v>1760.114268931555</v>
+        <v>1753.827495974394</v>
       </c>
       <c r="I27">
-        <v>-501.9688054537635</v>
+        <v>-487.001384482539</v>
       </c>
       <c r="J27">
-        <v>747.400672990007</v>
+        <v>790.9607874222886</v>
       </c>
       <c r="K27">
-        <v>2990.859768565228</v>
+        <v>3067.518615251007</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.66553316045415</v>
+        <v>57.49877967410747</v>
       </c>
       <c r="G28">
-        <v>224.0898647098097</v>
+        <v>221.2995652044221</v>
       </c>
       <c r="H28">
-        <v>1776.780961534986</v>
+        <v>1664.8330065194</v>
       </c>
       <c r="I28">
-        <v>-433.2405645581323</v>
+        <v>-420.9981482278667</v>
       </c>
       <c r="J28">
-        <v>769.4868622263682</v>
+        <v>716.5536841528811</v>
       </c>
       <c r="K28">
-        <v>2870.450413282726</v>
+        <v>2946.022267311083</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.36876945737511</v>
+        <v>56.27132371754377</v>
       </c>
       <c r="G29">
-        <v>227.3929537359043</v>
+        <v>229.7198111792052</v>
       </c>
       <c r="H29">
-        <v>1751.356293241207</v>
+        <v>1745.681318290886</v>
       </c>
       <c r="I29">
-        <v>-380.7337413805157</v>
+        <v>-381.1126004777958</v>
       </c>
       <c r="J29">
-        <v>679.5640869363287</v>
+        <v>712.7553428148532</v>
       </c>
       <c r="K29">
-        <v>2751.418083579577</v>
+        <v>2937.918572833642</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.24137050462521</v>
+        <v>51.22579892306558</v>
       </c>
       <c r="G30">
-        <v>241.5261000031751</v>
+        <v>250.3634636843237</v>
       </c>
       <c r="H30">
-        <v>1683.721872311263</v>
+        <v>1761.959951424636</v>
       </c>
       <c r="I30">
-        <v>-330.9545647833401</v>
+        <v>-336.1037145612549</v>
       </c>
       <c r="J30">
-        <v>621.8423400047442</v>
+        <v>634.4384887104387</v>
       </c>
       <c r="K30">
-        <v>2823.672516182194</v>
+        <v>2693.367883089689</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.12755354818536</v>
+        <v>50.633732164892</v>
       </c>
       <c r="G31">
-        <v>254.4471380095889</v>
+        <v>265.1661746912285</v>
       </c>
       <c r="H31">
-        <v>1803.338628095293</v>
+        <v>1775.215530491564</v>
       </c>
       <c r="I31">
-        <v>-268.6931784134202</v>
+        <v>-256.3598046488072</v>
       </c>
       <c r="J31">
-        <v>564.875456117279</v>
+        <v>583.2474729263195</v>
       </c>
       <c r="K31">
-        <v>2657.871127538785</v>
+        <v>2775.976558522665</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.205469040614</v>
+        <v>49.10211528897893</v>
       </c>
       <c r="G32">
-        <v>285.9789411453552</v>
+        <v>282.1711919394434</v>
       </c>
       <c r="H32">
-        <v>1733.427377649037</v>
+        <v>1723.642346652604</v>
       </c>
       <c r="I32">
-        <v>-217.8299220832177</v>
+        <v>-199.8204494536137</v>
       </c>
       <c r="J32">
-        <v>542.89689992567</v>
+        <v>541.012362575134</v>
       </c>
       <c r="K32">
-        <v>2473.015645040288</v>
+        <v>2607.015842217692</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.95810354374066</v>
+        <v>50.10091940522089</v>
       </c>
       <c r="G33">
-        <v>286.041583813764</v>
+        <v>290.9889965834738</v>
       </c>
       <c r="H33">
-        <v>1737.839450071346</v>
+        <v>1757.271925021786</v>
       </c>
       <c r="I33">
-        <v>-153.3813688163448</v>
+        <v>-150.9103443815797</v>
       </c>
       <c r="J33">
-        <v>487.1564743119063</v>
+        <v>514.4940072099135</v>
       </c>
       <c r="K33">
-        <v>2321.858591867532</v>
+        <v>2262.438394227138</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.50178064633314</v>
+        <v>48.32274018438467</v>
       </c>
       <c r="G34">
-        <v>317.6457407807698</v>
+        <v>319.8194256890333</v>
       </c>
       <c r="H34">
-        <v>1721.722023951668</v>
+        <v>1806.283665761384</v>
       </c>
       <c r="I34">
-        <v>-81.40240730687671</v>
+        <v>-80.35907420370471</v>
       </c>
       <c r="J34">
-        <v>428.4112020432797</v>
+        <v>454.7987409971699</v>
       </c>
       <c r="K34">
-        <v>2290.155500135372</v>
+        <v>2259.664303953447</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.50950031383653</v>
+        <v>45.97373857579558</v>
       </c>
       <c r="G35">
-        <v>335.8739669494089</v>
+        <v>327.8136653377053</v>
       </c>
       <c r="H35">
-        <v>1879.207412308456</v>
+        <v>1830.367832495006</v>
       </c>
       <c r="I35">
-        <v>-19.67293081607754</v>
+        <v>-19.11947927962335</v>
       </c>
       <c r="J35">
-        <v>385.6031972552592</v>
+        <v>379.6115183276472</v>
       </c>
       <c r="K35">
-        <v>2082.817215688566</v>
+        <v>2011.025550294081</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.5000296615873</v>
+        <v>49.17623871132714</v>
       </c>
       <c r="G36">
-        <v>340.5288948976152</v>
+        <v>349.8464807036376</v>
       </c>
       <c r="H36">
-        <v>1795.893000805013</v>
+        <v>1758.526626348209</v>
       </c>
       <c r="I36">
-        <v>47.59703977556001</v>
+        <v>47.6901648384401</v>
       </c>
       <c r="J36">
-        <v>345.7975247827112</v>
+        <v>342.0834185768142</v>
       </c>
       <c r="K36">
-        <v>1847.803064987602</v>
+        <v>1833.037662485466</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.58682096144964</v>
+        <v>45.4339377044839</v>
       </c>
       <c r="G37">
-        <v>364.7080982093489</v>
+        <v>379.527686989861</v>
       </c>
       <c r="H37">
-        <v>1868.33974839506</v>
+        <v>1776.567417635902</v>
       </c>
       <c r="I37">
-        <v>116.7537121596047</v>
+        <v>113.105964678404</v>
       </c>
       <c r="J37">
-        <v>284.6450210791065</v>
+        <v>296.5830229122121</v>
       </c>
       <c r="K37">
-        <v>1691.386551807786</v>
+        <v>1554.42706749541</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.62133834312837</v>
+        <v>44.84178046590367</v>
       </c>
       <c r="G38">
-        <v>391.7260436557899</v>
+        <v>387.261420079712</v>
       </c>
       <c r="H38">
-        <v>1877.880993219447</v>
+        <v>1827.403003271801</v>
       </c>
       <c r="I38">
-        <v>192.8078078633462</v>
+        <v>190.7278251701217</v>
       </c>
       <c r="J38">
-        <v>257.9673086549147</v>
+        <v>240.5074301995944</v>
       </c>
       <c r="K38">
-        <v>1368.657752804848</v>
+        <v>1369.763937250469</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.41864445473343</v>
+        <v>46.53188750564603</v>
       </c>
       <c r="G39">
-        <v>393.9897069310501</v>
+        <v>402.933400433895</v>
       </c>
       <c r="H39">
-        <v>1893.283029205513</v>
+        <v>1787.112969028586</v>
       </c>
       <c r="I39">
-        <v>244.7575669020284</v>
+        <v>244.1449692896965</v>
       </c>
       <c r="J39">
-        <v>203.8551009330212</v>
+        <v>201.0223153008653</v>
       </c>
       <c r="K39">
-        <v>1199.315012686062</v>
+        <v>1152.969067471146</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.24561345877644</v>
+        <v>46.12580990601528</v>
       </c>
       <c r="G40">
-        <v>419.4037703252927</v>
+        <v>404.8526206068382</v>
       </c>
       <c r="H40">
-        <v>1904.384166057413</v>
+        <v>1852.267610386741</v>
       </c>
       <c r="I40">
-        <v>344.647304569842</v>
+        <v>329.3988089766956</v>
       </c>
       <c r="J40">
-        <v>149.8752117581182</v>
+        <v>144.4304577886082</v>
       </c>
       <c r="K40">
-        <v>896.2949466774992</v>
+        <v>882.7309936921108</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.06555392464232</v>
+        <v>42.72230285283467</v>
       </c>
       <c r="G41">
-        <v>431.2965360287971</v>
+        <v>445.860115383156</v>
       </c>
       <c r="H41">
-        <v>1863.229548464479</v>
+        <v>1929.073592866358</v>
       </c>
       <c r="I41">
-        <v>417.411506852857</v>
+        <v>404.5513350855688</v>
       </c>
       <c r="J41">
-        <v>104.1311720932305</v>
+        <v>104.1911843584615</v>
       </c>
       <c r="K41">
-        <v>627.9678295359728</v>
+        <v>638.4539807823826</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.00413264267663</v>
+        <v>44.47878195819716</v>
       </c>
       <c r="G42">
-        <v>424.0133540064159</v>
+        <v>448.9139771410363</v>
       </c>
       <c r="H42">
-        <v>1943.793919563245</v>
+        <v>1882.564343879955</v>
       </c>
       <c r="I42">
-        <v>490.4026414660034</v>
+        <v>491.8752995397103</v>
       </c>
       <c r="J42">
-        <v>56.04085317676009</v>
+        <v>55.51954838491061</v>
       </c>
       <c r="K42">
-        <v>340.1144031058067</v>
+        <v>334.7293443163468</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.28712871293754</v>
+        <v>40.59663044480057</v>
       </c>
       <c r="G43">
-        <v>477.9872137642586</v>
+        <v>479.2809530818064</v>
       </c>
       <c r="H43">
-        <v>1895.064826885937</v>
+        <v>1948.875819609647</v>
       </c>
       <c r="I43">
-        <v>541.3032990177273</v>
+        <v>539.3916322920372</v>
       </c>
       <c r="J43">
-        <v>5.15747267867562</v>
+        <v>5.455166175460213</v>
       </c>
       <c r="K43">
-        <v>34.26355349816762</v>
+        <v>33.99534965936801</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.93599857981726</v>
+        <v>43.52788492257096</v>
       </c>
       <c r="G44">
-        <v>487.0438175786078</v>
+        <v>470.4692141539994</v>
       </c>
       <c r="H44">
-        <v>1967.444066783868</v>
+        <v>1990.80721725842</v>
       </c>
       <c r="I44">
-        <v>620.7779714901302</v>
+        <v>655.2635543352289</v>
       </c>
       <c r="J44">
-        <v>-41.58530348817357</v>
+        <v>-44.60500453715984</v>
       </c>
       <c r="K44">
-        <v>-297.1807459773489</v>
+        <v>-286.3363239197574</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.1354553189577</v>
+        <v>41.03005800703922</v>
       </c>
       <c r="G45">
-        <v>476.5892280966781</v>
+        <v>492.4544997038472</v>
       </c>
       <c r="H45">
-        <v>1946.303895651289</v>
+        <v>1855.315261530018</v>
       </c>
       <c r="I45">
-        <v>689.1629047166243</v>
+        <v>701.1607470129411</v>
       </c>
       <c r="J45">
-        <v>-90.52962155754751</v>
+        <v>-89.36383335231756</v>
       </c>
       <c r="K45">
-        <v>-587.3021702803804</v>
+        <v>-608.3160477723995</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.78030424803447</v>
+        <v>40.88212084566597</v>
       </c>
       <c r="G46">
-        <v>508.9242876203889</v>
+        <v>516.1059742241001</v>
       </c>
       <c r="H46">
-        <v>1855.837833275973</v>
+        <v>1833.951051861955</v>
       </c>
       <c r="I46">
-        <v>840.1506147805595</v>
+        <v>826.5156682027244</v>
       </c>
       <c r="J46">
-        <v>-139.9968274951973</v>
+        <v>-134.9988926472225</v>
       </c>
       <c r="K46">
-        <v>-1009.009009065566</v>
+        <v>-945.2377245803326</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.97076331201196</v>
+        <v>41.45048015492895</v>
       </c>
       <c r="G47">
-        <v>549.770459100118</v>
+        <v>536.2050271138938</v>
       </c>
       <c r="H47">
-        <v>1869.93889642218</v>
+        <v>1866.833304519922</v>
       </c>
       <c r="I47">
-        <v>863.7225860410948</v>
+        <v>872.1401372937572</v>
       </c>
       <c r="J47">
-        <v>-182.8672200080881</v>
+        <v>-180.1276656314203</v>
       </c>
       <c r="K47">
-        <v>-1326.720460401261</v>
+        <v>-1375.950928652085</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.0880926151312</v>
+        <v>41.21305183285465</v>
       </c>
       <c r="G48">
-        <v>537.6223392483046</v>
+        <v>543.1212794648417</v>
       </c>
       <c r="H48">
-        <v>1883.125885047804</v>
+        <v>1888.454827176043</v>
       </c>
       <c r="I48">
-        <v>1003.947073068097</v>
+        <v>962.8228271491288</v>
       </c>
       <c r="J48">
-        <v>-228.4861281502961</v>
+        <v>-242.1730451832331</v>
       </c>
       <c r="K48">
-        <v>-1769.106451476338</v>
+        <v>-1655.307576985777</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.40630373025089</v>
+        <v>38.74699454325621</v>
       </c>
       <c r="G49">
-        <v>579.543505458838</v>
+        <v>536.2577577885882</v>
       </c>
       <c r="H49">
-        <v>1947.224219997333</v>
+        <v>2031.096203522767</v>
       </c>
       <c r="I49">
-        <v>1030.185311457979</v>
+        <v>1054.365755175882</v>
       </c>
       <c r="J49">
-        <v>-290.9183438478555</v>
+        <v>-288.7090179514209</v>
       </c>
       <c r="K49">
-        <v>-2063.372042800113</v>
+        <v>-2066.084153182195</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.6931740197551</v>
+        <v>38.63613181396529</v>
       </c>
       <c r="G50">
-        <v>585.2930745555323</v>
+        <v>581.7324943686184</v>
       </c>
       <c r="H50">
-        <v>2042.182036039057</v>
+        <v>1945.192439640726</v>
       </c>
       <c r="I50">
-        <v>1127.9831714685</v>
+        <v>1217.423166167384</v>
       </c>
       <c r="J50">
-        <v>-334.8971127822177</v>
+        <v>-339.3483896822578</v>
       </c>
       <c r="K50">
-        <v>-2419.848984130812</v>
+        <v>-2414.622325358911</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.74040470980595</v>
+        <v>36.66622396685826</v>
       </c>
       <c r="G51">
-        <v>607.6311923139174</v>
+        <v>609.2638581019738</v>
       </c>
       <c r="H51">
-        <v>2018.246193440489</v>
+        <v>1981.826571505069</v>
       </c>
       <c r="I51">
-        <v>1230.008595480653</v>
+        <v>1245.923197488835</v>
       </c>
       <c r="J51">
-        <v>-365.418944377694</v>
+        <v>-388.1266839239283</v>
       </c>
       <c r="K51">
-        <v>-2951.025137075154</v>
+        <v>-3052.700085932525</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.39861741124331</v>
+        <v>39.03829251036925</v>
       </c>
       <c r="G52">
-        <v>601.8507088931971</v>
+        <v>628.7696445903131</v>
       </c>
       <c r="H52">
-        <v>1906.635618694103</v>
+        <v>2032.588765468451</v>
       </c>
       <c r="I52">
-        <v>1294.748003361299</v>
+        <v>1385.64133726847</v>
       </c>
       <c r="J52">
-        <v>-412.6005555106455</v>
+        <v>-441.1668654729036</v>
       </c>
       <c r="K52">
-        <v>-3357.398688954195</v>
+        <v>-3272.766801780824</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.51671422028127</v>
+        <v>38.73022581602518</v>
       </c>
       <c r="G53">
-        <v>643.6442459723411</v>
+        <v>626.9634911760555</v>
       </c>
       <c r="H53">
-        <v>1985.564553733195</v>
+        <v>1918.527361528604</v>
       </c>
       <c r="I53">
-        <v>1405.171595529408</v>
+        <v>1523.835770397859</v>
       </c>
       <c r="J53">
-        <v>-461.0455974716053</v>
+        <v>-499.9871653634663</v>
       </c>
       <c r="K53">
-        <v>-3911.374949945274</v>
+        <v>-3942.355750780848</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.72742001007816</v>
+        <v>37.86262809853647</v>
       </c>
       <c r="G54">
-        <v>658.8303203406228</v>
+        <v>647.3528732417551</v>
       </c>
       <c r="H54">
-        <v>1978.501191237798</v>
+        <v>2045.688054937286</v>
       </c>
       <c r="I54">
-        <v>1539.207264261188</v>
+        <v>1633.881678732383</v>
       </c>
       <c r="J54">
-        <v>-543.5756882466511</v>
+        <v>-503.8782213798466</v>
       </c>
       <c r="K54">
-        <v>-4331.55539956545</v>
+        <v>-4320.741865607381</v>
       </c>
     </row>
   </sheetData>
